--- a/extension1.xlsx
+++ b/extension1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantnu\Desktop\COMP6202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2CF2DF7-8871-477F-818F-844F7DA1A260}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F46B95CB-A4EC-4A42-8A5E-04C1C80302C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output2" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>"10"</t>
+  </si>
+  <si>
+    <t>"111"</t>
+  </si>
+  <si>
+    <t>"110"</t>
+  </si>
+  <si>
+    <t>"1111"</t>
+  </si>
+  <si>
+    <t>"1110"</t>
+  </si>
+  <si>
+    <t>"11111"</t>
+  </si>
+  <si>
+    <t>"11110"</t>
+  </si>
+  <si>
+    <t>"111111"</t>
+  </si>
+  <si>
+    <t>"111110"</t>
+  </si>
+  <si>
+    <t>"1111111"</t>
+  </si>
+  <si>
+    <t>"1111110"</t>
+  </si>
+  <si>
+    <t>"11111111"</t>
+  </si>
+  <si>
+    <t>"11111110"</t>
+  </si>
+  <si>
+    <t>"111111111"</t>
+  </si>
+  <si>
+    <t>"111111110"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="\&quot;@\&quot;"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,8 +554,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -854,61 +912,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>111</v>
-      </c>
-      <c r="D1">
-        <v>110</v>
-      </c>
-      <c r="E1">
-        <v>1111</v>
-      </c>
-      <c r="F1">
-        <v>1110</v>
-      </c>
-      <c r="G1">
-        <v>11111</v>
-      </c>
-      <c r="H1">
-        <v>11110</v>
-      </c>
-      <c r="I1">
-        <v>111111</v>
-      </c>
-      <c r="J1">
-        <v>111110</v>
-      </c>
-      <c r="K1">
-        <v>1111111</v>
-      </c>
-      <c r="L1">
-        <v>1111110</v>
-      </c>
-      <c r="M1">
-        <v>11111111</v>
-      </c>
-      <c r="N1">
-        <v>11111110</v>
-      </c>
-      <c r="O1">
-        <v>111111111</v>
-      </c>
-      <c r="P1">
-        <v>111111110</v>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -8463,5 +8527,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>